--- a/Raw_data/Stoich/Microscale P digestion_Trial.xlsx
+++ b/Raw_data/Stoich/Microscale P digestion_Trial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://westernsydneyedu-my.sharepoint.com/personal/90957135_westernsydney_edu_au/Documents/ABS_FIRE/ABS_FIRE_MYCO/Raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://westernsydneyedu-my.sharepoint.com/personal/90957135_westernsydney_edu_au/Documents/ABS_FIRE/ABS_FIRE_MYCO/Raw_data/Stoich/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3881EC7F-4B55-4E1E-A38C-8C3036DE1172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{3881EC7F-4B55-4E1E-A38C-8C3036DE1172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7053A2DF-DA3B-405C-8519-A075E1FAD2C0}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{9460D11B-6791-42AB-BB8A-0BB802F560DA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9460D11B-6791-42AB-BB8A-0BB802F560DA}"/>
   </bookViews>
   <sheets>
     <sheet name="For Simmy" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="97">
   <si>
     <t>Sample ID</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>blank</t>
+  </si>
+  <si>
+    <t>C*25*1000)/A</t>
   </si>
 </sst>
 </file>
@@ -717,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA96B6B-2A02-41CA-AF5E-40AC0F7B85BA}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -728,7 +731,7 @@
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -754,7 +757,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -782,7 +785,7 @@
         <v>1.6257645968489343</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -810,7 +813,7 @@
         <v>-2.3433242506811988E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1">
+    <row r="4" spans="1:12" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -841,7 +844,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -869,7 +872,7 @@
         <v>1.5874480465502907</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -897,7 +900,7 @@
         <v>1.0396039603960397E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -925,7 +928,7 @@
         <v>1.4994951812758144</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -953,7 +956,7 @@
         <v>1.8242921013412816</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -981,7 +984,7 @@
         <v>0.10658151961423172</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>13</v>
       </c>
@@ -1008,7 +1011,7 @@
         <v>0.27327044025157238</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>13</v>
       </c>
@@ -1035,7 +1038,7 @@
         <v>1.5835570469798657</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>16</v>
       </c>
@@ -1062,7 +1065,7 @@
         <v>1.4563106796116502E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>16</v>
       </c>
@@ -1089,7 +1092,7 @@
         <v>1.7960722702278085</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1116,7 +1119,7 @@
         <v>1.3366906474820144</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:12">
       <c r="C15">
         <v>14</v>
       </c>
@@ -1137,7 +1140,7 @@
         <v>1.2465805834528931</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:12">
       <c r="C16">
         <v>15</v>
       </c>
@@ -1157,8 +1160,11 @@
         <f t="shared" si="0"/>
         <v>1.2664561957379639</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="L16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1185,7 +1191,7 @@
         <v>1.6005513439007581</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:12">
       <c r="C18">
         <v>17</v>
       </c>
@@ -1206,7 +1212,7 @@
         <v>6.8003820439350521E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:12">
       <c r="C19">
         <v>18</v>
       </c>
@@ -1227,7 +1233,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:12">
       <c r="C20" s="4" t="s">
         <v>94</v>
       </c>
@@ -1238,6 +1244,7 @@
         <v>3</v>
       </c>
       <c r="F20" s="4">
+        <f>0.2593</f>
         <v>0.25929999999999997</v>
       </c>
       <c r="G20" s="4"/>
@@ -1249,8 +1256,20 @@
         <f>(H20*3)</f>
         <v>1.060772727272727</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20">
+        <f>(F20*E20*1000)/D20</f>
+        <v>353.59090909090907</v>
+      </c>
+      <c r="K20">
+        <f>3*J20</f>
+        <v>1060.7727272727273</v>
+      </c>
+      <c r="L20">
+        <f>K20/1000000</f>
+        <v>1.0607727272727273E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="C21" s="4" t="s">
         <v>95</v>
       </c>
@@ -1270,8 +1289,20 @@
         <f t="shared" ref="I21:I28" si="1">(H21*3)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" t="e">
+        <f t="shared" ref="J21:J28" si="2">(F21*E21*1000)/D21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" t="e">
+        <f t="shared" ref="K21:K28" si="3">3*J21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" t="e">
+        <f t="shared" ref="L21:L28" si="4">K21/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="C22" s="4" t="s">
         <v>94</v>
       </c>
@@ -1293,8 +1324,20 @@
         <f t="shared" si="1"/>
         <v>1.0662857142857141</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>355.42857142857139</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>1066.2857142857142</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>1.0662857142857143E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="C23" s="4" t="s">
         <v>95</v>
       </c>
@@ -1316,8 +1359,20 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L23" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="C24" s="4">
         <v>18</v>
       </c>
@@ -1339,8 +1394,20 @@
         <f t="shared" si="1"/>
         <v>1.7259551706571576</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>575.3183902190525</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>1725.9551706571574</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>1.7259551706571574E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="C25" s="4">
         <v>8</v>
       </c>
@@ -1362,8 +1429,20 @@
         <f t="shared" si="1"/>
         <v>1.7408942710759199</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>580.29809035864002</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>1740.8942710759202</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>1.7408942710759202E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="C26" s="4">
         <v>14</v>
       </c>
@@ -1385,8 +1464,20 @@
         <f t="shared" si="1"/>
         <v>1.7210059171597631</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>573.66863905325442</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>1721.0059171597632</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>1.7210059171597631E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="C27" s="4">
         <v>13</v>
       </c>
@@ -1408,8 +1499,20 @@
         <f t="shared" si="1"/>
         <v>1.7599009900990099</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>586.63366336633658</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>1759.9009900990097</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>1.7599009900990097E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="C28" s="4">
         <v>17</v>
       </c>
@@ -1430,6 +1533,18 @@
       <c r="I28" s="4">
         <f t="shared" si="1"/>
         <v>2.0999999999999996</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>2100</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>2.0999999999999999E-3</v>
       </c>
     </row>
   </sheetData>
